--- a/trunk/OSAMS/fileupload/All Students.xlsx
+++ b/trunk/OSAMS/fileupload/All Students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="12015"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="SRS_ISYS2132 2012-1 VNMRI Class" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -151,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,7 +762,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,7 +796,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -973,14 +971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -993,7 +991,7 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,9 +1026,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>3220646</v>
+        <v>8220646</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1054,9 +1052,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>3220658</v>
+        <v>8220658</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1080,9 +1078,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>3220670</v>
+        <v>8220670</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1106,9 +1104,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>3220677</v>
+        <v>8220677</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1132,9 +1130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>3222055</v>
+        <v>8222055</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1158,9 +1156,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>3231181</v>
+        <v>8231181</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1184,9 +1182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
-        <v>3231753</v>
+        <v>8231753</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1210,9 +1208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
-        <v>3245674</v>
+        <v>8245674</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1236,9 +1234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
-        <v>3246044</v>
+        <v>8246044</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1262,9 +1260,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
-        <v>3246051</v>
+        <v>8246051</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1288,9 +1286,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
-        <v>3246057</v>
+        <v>8246057</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1314,9 +1312,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
-        <v>3246062</v>
+        <v>8246062</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1340,9 +1338,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
-        <v>3309647</v>
+        <v>8309647</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
